--- a/Statistics/Master/2019/Weekly/August/Week of August 12, 2019.xlsx
+++ b/Statistics/Master/2019/Weekly/August/Week of August 12, 2019.xlsx
@@ -1179,7 +1179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
       <selection activeCell="B12" sqref="B12:N15"/>
@@ -4691,7 +4691,6 @@
       <c r="I47" s="8" t="n"/>
       <c r="J47" s="8" t="n"/>
     </row>
-    <row r="48"/>
     <row customHeight="1" ht="18.75" r="49" s="34">
       <c r="A49" s="1" t="inlineStr">
         <is>

--- a/Statistics/Master/2019/Weekly/August/Week of August 12, 2019.xlsx
+++ b/Statistics/Master/2019/Weekly/August/Week of August 12, 2019.xlsx
@@ -8346,43 +8346,43 @@
         </is>
       </c>
       <c r="B39" s="20" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C39" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20" t="n">
+        <v>13</v>
+      </c>
+      <c r="G39" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H39" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="D39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="G39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="20" t="n">
-        <v>2</v>
-      </c>
       <c r="M39" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" s="20" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="40" s="34">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D40" s="20" t="n">
         <v>0</v>
@@ -8404,16 +8404,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G40" s="20" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H40" s="20" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="20" t="n">
         <v>0</v>
@@ -8422,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="L40" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N40" s="20" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="41" s="34">
@@ -8438,28 +8438,28 @@
         </is>
       </c>
       <c r="B41" s="20" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C41" s="20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D41" s="20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E41" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G41" s="20" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H41" s="20" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="20" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>0</v>
       </c>
       <c r="L41" s="20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M41" s="20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N41" s="20" t="n">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="42" s="34">
@@ -8483,19 +8483,45 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B42" s="20" t="n"/>
-      <c r="C42" s="20" t="n"/>
-      <c r="D42" s="20" t="n"/>
-      <c r="E42" s="20" t="n"/>
-      <c r="F42" s="20" t="n"/>
-      <c r="G42" s="20" t="n"/>
-      <c r="H42" s="20" t="n"/>
-      <c r="I42" s="20" t="n"/>
-      <c r="J42" s="20" t="n"/>
-      <c r="K42" s="20" t="n"/>
-      <c r="L42" s="20" t="n"/>
-      <c r="M42" s="20" t="n"/>
-      <c r="N42" s="20" t="n"/>
+      <c r="B42" s="20" t="n">
+        <v>31</v>
+      </c>
+      <c r="C42" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="D42" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="20" t="n">
+        <v>19</v>
+      </c>
+      <c r="G42" s="20" t="n">
+        <v>33</v>
+      </c>
+      <c r="H42" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M42" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" s="20" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row customHeight="1" ht="18.75" r="43" s="34">
       <c r="A43" s="6" t="n"/>

--- a/Statistics/Master/2019/Weekly/August/Week of August 12, 2019.xlsx
+++ b/Statistics/Master/2019/Weekly/August/Week of August 12, 2019.xlsx
@@ -8346,28 +8346,28 @@
         </is>
       </c>
       <c r="B39" s="20" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C39" s="20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E39" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="20" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G39" s="20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H39" s="20" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="20" t="n">
         <v>0</v>
@@ -8376,13 +8376,13 @@
         <v>0</v>
       </c>
       <c r="L39" s="20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" s="20" t="n">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="40" s="34">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" s="20" t="n">
         <v>0</v>
@@ -8404,16 +8404,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G40" s="20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H40" s="20" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="20" t="n">
         <v>0</v>
@@ -8422,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="L40" s="20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" s="20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="20" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="41" s="34">
@@ -8438,28 +8438,28 @@
         </is>
       </c>
       <c r="B41" s="20" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C41" s="20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D41" s="20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E41" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="20" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G41" s="20" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H41" s="20" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="20" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>0</v>
       </c>
       <c r="L41" s="20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M41" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N41" s="20" t="n">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="42" s="34">

--- a/Statistics/Master/2019/Weekly/August/Week of August 12, 2019.xlsx
+++ b/Statistics/Master/2019/Weekly/August/Week of August 12, 2019.xlsx
@@ -8346,43 +8346,43 @@
         </is>
       </c>
       <c r="B39" s="20" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C39" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20" t="n">
+        <v>13</v>
+      </c>
+      <c r="G39" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H39" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="D39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="G39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="20" t="n">
-        <v>2</v>
-      </c>
       <c r="M39" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" s="20" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="40" s="34">
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D40" s="20" t="n">
         <v>0</v>
@@ -8404,16 +8404,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G40" s="20" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H40" s="20" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="20" t="n">
         <v>0</v>
@@ -8422,13 +8422,13 @@
         <v>0</v>
       </c>
       <c r="L40" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" s="20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N40" s="20" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="41" s="34">
@@ -8438,28 +8438,28 @@
         </is>
       </c>
       <c r="B41" s="20" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C41" s="20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D41" s="20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E41" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G41" s="20" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H41" s="20" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="20" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>0</v>
       </c>
       <c r="L41" s="20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M41" s="20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N41" s="20" t="n">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="42" s="34">
